--- a/va_facility_data_2025-02-20/Cookeville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cookeville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cookeville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cookeville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3284d8e56e89457dbc347b3929a1ddc9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3f64f814302e4f86877dd2a948549451"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2e85c604979040de95634b6ef24d58cb"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R497e11613ae344f29b85f20910243517"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rba35bf69c1fd4464a3c83924854339bd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7f6149da8210423c9c0f1e6ff2c4559d"/>
   </x:sheets>
 </x:workbook>
 </file>
